--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI-PC\Desktop\bloomberg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5835726-3F1D-41CF-8250-8E22DCDC20E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3873886A-0A0D-4A2C-9767-764B909A94F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>APPLE_MACD(12,26,9)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,62 @@
   </si>
   <si>
     <t>largest drawdown duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>515days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>770days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>651days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>286days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>184days</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +572,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -537,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,9 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -585,9 +646,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,6 +655,13 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -879,14 +944,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -897,7 +962,7 @@
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -917,7 +982,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>1.147688389</v>
       </c>
       <c r="C2" s="1">
@@ -937,7 +1002,7 @@
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>1.0996699999999999</v>
       </c>
       <c r="C3" s="1">
@@ -957,7 +1022,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f>1150684.51/1000000</f>
         <v>1.15068451</v>
       </c>
@@ -978,7 +1043,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f>1407776.71/1000000</f>
         <v>1.40777671</v>
       </c>
@@ -999,7 +1064,7 @@
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f>1647587.25/1000000</f>
         <v>1.6475872499999999</v>
       </c>
@@ -1020,7 +1085,7 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>1.802302383</v>
       </c>
       <c r="C7" s="4">
@@ -1040,7 +1105,7 @@
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <f>28679700.07/1000000</f>
         <v>28.679700069999999</v>
       </c>
@@ -1061,7 +1126,7 @@
       <c r="A10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <f>33561639.57/1000000</f>
         <v>33.561639569999997</v>
       </c>
@@ -1082,7 +1147,7 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <f>20275839.72/1000000</f>
         <v>20.27583972</v>
       </c>
@@ -1103,7 +1168,7 @@
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <f>28840442.58/1000000</f>
         <v>28.840442579999998</v>
       </c>
@@ -1124,7 +1189,7 @@
       <c r="A13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <f>2104447.58/1000000</f>
         <v>2.10444758</v>
       </c>
@@ -1145,7 +1210,7 @@
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <f>549831.59/1000000</f>
         <v>0.54983158999999993</v>
       </c>
@@ -1166,7 +1231,7 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>31.289984663999999</v>
       </c>
       <c r="C15" s="2">
@@ -1186,7 +1251,7 @@
       <c r="A16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>38.733800000000002</v>
       </c>
       <c r="C16" s="9">
@@ -1206,7 +1271,7 @@
       <c r="A17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>32.847999999999999</v>
       </c>
       <c r="C17" s="9">
@@ -1226,7 +1291,7 @@
       <c r="A18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>23.274000000000001</v>
       </c>
       <c r="C18" s="9">
@@ -1246,7 +1311,7 @@
       <c r="A19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>42.483699999999999</v>
       </c>
       <c r="C19" s="9">
@@ -1266,7 +1331,7 @@
       <c r="A20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>31.6968</v>
       </c>
       <c r="C20" s="9">
@@ -1286,7 +1351,7 @@
       <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>23.3858</v>
       </c>
       <c r="C21" s="9">
@@ -1306,7 +1371,7 @@
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>16.614196199999999</v>
       </c>
       <c r="C22" s="4">
@@ -1322,23 +1387,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="22">
         <v>2.5125049537146098</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="21">
         <v>1.26</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="21">
         <v>0.25</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="21">
         <v>69</v>
       </c>
     </row>
@@ -1346,19 +1411,19 @@
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>2.5030000000000001</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>2.2789999999999999</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>0.255</v>
       </c>
-      <c r="E25" s="13">
-        <v>201</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="E25" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="12">
         <v>69</v>
       </c>
     </row>
@@ -1366,19 +1431,19 @@
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>2.512</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>1.2654000000000001</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>0.25440000000000002</v>
       </c>
-      <c r="E26" s="13">
-        <v>164</v>
-      </c>
-      <c r="F26" s="13">
+      <c r="E26" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="12">
         <v>69</v>
       </c>
     </row>
@@ -1386,39 +1451,39 @@
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>2.2235</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>1.0880000000000001</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>0.27300000000000002</v>
       </c>
-      <c r="E27" s="13">
-        <v>185</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="E27" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="12">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>2.298</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>1.2030000000000001</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E28" s="13">
-        <v>206</v>
-      </c>
-      <c r="F28" s="13">
+      <c r="E28" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="12">
         <v>91</v>
       </c>
     </row>
@@ -1426,19 +1491,19 @@
       <c r="A29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>2.3873000000000002</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>1.9</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>0.27960000000000002</v>
       </c>
-      <c r="E29" s="13">
-        <v>200</v>
-      </c>
-      <c r="F29" s="13">
+      <c r="E29" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="12">
         <v>69</v>
       </c>
     </row>
@@ -1446,19 +1511,19 @@
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>2.5089999999999999</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>1.2828999999999999</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>0.23039999999999999</v>
       </c>
-      <c r="E30" s="13">
-        <v>141</v>
-      </c>
-      <c r="F30" s="13">
+      <c r="E30" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="12">
         <v>79</v>
       </c>
     </row>
@@ -1466,19 +1531,19 @@
       <c r="A31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>2.5705</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>1.3109</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>0.26129999999999998</v>
       </c>
-      <c r="E31" s="13">
-        <v>200</v>
-      </c>
-      <c r="F31" s="13">
+      <c r="E31" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="12">
         <v>69</v>
       </c>
     </row>
@@ -1486,7 +1551,7 @@
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <f>1916980.2/1000000</f>
         <v>1.9169802</v>
       </c>
@@ -1507,7 +1572,7 @@
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="15">
         <f>3456044.8/1000000</f>
         <v>3.4560447999999999</v>
       </c>
@@ -1528,7 +1593,7 @@
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <f>1819706.44/1000000</f>
         <v>1.81970644</v>
       </c>
@@ -1545,24 +1610,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="22">
         <f>2637318.69/1000000</f>
         <v>2.6373186899999999</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="21">
         <v>1.26</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="21">
         <v>0.16</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="21">
         <v>20</v>
       </c>
     </row>
@@ -1570,7 +1635,7 @@
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <f>1954921.48/1000000</f>
         <v>1.9549214799999999</v>
       </c>
@@ -1591,7 +1656,7 @@
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <f>2254719.66/1000000</f>
         <v>2.2547196600000001</v>
       </c>
@@ -1612,7 +1677,7 @@
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="15">
         <f>3291853.97/1000000</f>
         <v>3.29185397</v>
       </c>
@@ -1633,7 +1698,7 @@
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <f>2316401.32/1000000</f>
         <v>2.3164013199999998</v>
       </c>
@@ -1654,7 +1719,7 @@
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <f>1574129.21/1000000</f>
         <v>1.5741292099999999</v>
       </c>
@@ -1675,7 +1740,7 @@
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>1.4350000000000001</v>
       </c>
       <c r="C41" s="1">
@@ -1695,7 +1760,7 @@
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>1.292</v>
       </c>
       <c r="C42" s="1">
@@ -1715,7 +1780,7 @@
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <v>1.296</v>
       </c>
       <c r="C43" s="1">
@@ -1735,7 +1800,7 @@
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>1.087</v>
       </c>
       <c r="C44" s="1">
@@ -1755,7 +1820,7 @@
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>0.998</v>
       </c>
       <c r="C45" s="1">
@@ -1775,7 +1840,7 @@
       <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="14">
         <v>2.789758</v>
       </c>
       <c r="C46" s="4">
@@ -1793,7 +1858,7 @@
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1803,7 +1868,7 @@
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>1.3080000000000001</v>
       </c>
       <c r="C48" s="1">
@@ -1823,7 +1888,7 @@
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>1.353</v>
       </c>
       <c r="C49" s="1">
@@ -1843,7 +1908,7 @@
       <c r="A50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <f>1440711.88/1000000</f>
         <v>1.4407118799999998</v>
       </c>
@@ -1864,7 +1929,7 @@
       <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="18">
         <v>1.605</v>
       </c>
       <c r="C51" s="6">
@@ -1884,7 +1949,7 @@
       <c r="A53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="17">
         <v>1.2230000000000001</v>
       </c>
       <c r="C53" s="2">
@@ -1904,7 +1969,7 @@
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="17">
         <v>1.2450000000000001</v>
       </c>
       <c r="C54" s="2">
@@ -1924,7 +1989,7 @@
       <c r="A55" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="16">
         <f>1113760.88/1000000</f>
         <v>1.1137608799999998</v>
       </c>
@@ -1945,7 +2010,7 @@
       <c r="A56" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="18">
         <v>1.181</v>
       </c>
       <c r="C56" s="6">
@@ -1965,19 +2030,19 @@
       <c r="A58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>1.63313129818789</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="11">
         <v>0.56052257747919798</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="11">
         <v>0.36432284108837198</v>
       </c>
-      <c r="E58" s="13">
-        <v>515</v>
-      </c>
-      <c r="F58" s="13">
+      <c r="E58" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="12">
         <v>85</v>
       </c>
     </row>
@@ -1985,20 +2050,20 @@
       <c r="A59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <f>1528333.46/1000000</f>
         <v>1.52833346</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>0.44</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>0.35</v>
       </c>
-      <c r="E59" s="13">
-        <v>770</v>
-      </c>
-      <c r="F59" s="13">
+      <c r="E59" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="12">
         <v>33</v>
       </c>
     </row>
@@ -2006,20 +2071,20 @@
       <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <f>1101389.31/1000000</f>
         <v>1.1013893100000001</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>-0.06</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="11">
         <v>0.25</v>
       </c>
-      <c r="E60" s="13">
-        <v>651</v>
-      </c>
-      <c r="F60" s="13">
+      <c r="E60" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2027,45 +2092,45 @@
       <c r="A61" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="18">
         <v>2.5097999999999998</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="19">
         <v>0.88</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="19">
         <v>0.33</v>
       </c>
-      <c r="E61" s="22">
-        <v>286</v>
-      </c>
-      <c r="F61" s="22">
+      <c r="E61" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <v>2.4412904596786</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="11">
         <v>1.0231938028694101</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="11">
         <v>0.25706531434239799</v>
       </c>
-      <c r="E63" s="13">
-        <v>307</v>
-      </c>
-      <c r="F63" s="13">
+      <c r="E63" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="12">
         <v>75</v>
       </c>
     </row>
@@ -2073,19 +2138,19 @@
       <c r="A64" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="13">
         <v>3.6303131099999999</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <v>1.36</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>0.2</v>
       </c>
-      <c r="E64" s="13">
-        <v>260</v>
-      </c>
-      <c r="F64" s="13">
+      <c r="E64" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="12">
         <v>27</v>
       </c>
     </row>
@@ -2093,19 +2158,19 @@
       <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>1.54471654</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="11">
         <v>0.61</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="11">
         <v>0.13</v>
       </c>
-      <c r="E65" s="13">
-        <v>142</v>
-      </c>
-      <c r="F65" s="13">
+      <c r="E65" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2113,39 +2178,39 @@
       <c r="A66" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="18">
         <v>5.6326999999999998</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="19">
         <v>1.5</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="19">
         <v>0.36</v>
       </c>
-      <c r="E66" s="22">
-        <v>184</v>
-      </c>
-      <c r="F66" s="22">
+      <c r="E66" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A56" xr:uid="{46F3B01C-1555-492B-9AAD-D49771879609}"/>
